--- a/SolutionItems/Documents/Index Income Calculation.xlsx
+++ b/SolutionItems/Documents/Index Income Calculation.xlsx
@@ -48,12 +48,6 @@
     <t>Step 2</t>
   </si>
   <si>
-    <t>Reverse 1</t>
-  </si>
-  <si>
-    <t>Reverse 2</t>
-  </si>
-  <si>
     <t>LOW TO HIGH</t>
   </si>
   <si>
@@ -67,6 +61,12 @@
   </si>
   <si>
     <t>Total Income</t>
+  </si>
+  <si>
+    <t>Step 3</t>
+  </si>
+  <si>
+    <t>Step 4</t>
   </si>
 </sst>
 </file>
@@ -428,9 +428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -442,7 +440,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2">
         <f>SUM(A7:A10)</f>
@@ -451,7 +449,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2">
         <v>0.1</v>
@@ -459,7 +457,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2">
         <f>B1*B2</f>
@@ -468,7 +466,7 @@
     </row>
     <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -654,7 +652,7 @@
     </row>
     <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -674,17 +672,17 @@
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>0</v>
@@ -910,7 +908,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2">
         <f>SUM(A7:A10)</f>
@@ -919,7 +917,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2">
         <v>0.1</v>
@@ -927,7 +925,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2">
         <f>B1*B2</f>
@@ -936,7 +934,7 @@
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1120,7 +1118,7 @@
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>

--- a/SolutionItems/Documents/Index Income Calculation.xlsx
+++ b/SolutionItems/Documents/Index Income Calculation.xlsx
@@ -428,7 +428,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -509,27 +511,27 @@
         <v>100</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2">
         <f>B7/$B$11</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2">
         <f>1-F7</f>
-        <v>0.75</v>
-      </c>
-      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="e">
         <f>G7/$G$11</f>
-        <v>0.5</v>
-      </c>
-      <c r="I7" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="3" t="e">
         <f>$B$3*H7</f>
-        <v>20</v>
-      </c>
-      <c r="J7" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" s="3" t="e">
         <f>A7+I7</f>
-        <v>120</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -543,27 +545,27 @@
         <v>100</v>
       </c>
       <c r="B8" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2">
         <f>B8/$B$11</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
         <f>1-F8</f>
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="e">
         <f>G8/$G$11</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I8" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="3" t="e">
         <f>$B$3*H8</f>
-        <v>13.333333333333332</v>
-      </c>
-      <c r="J8" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J8" s="3" t="e">
         <f>A8+I8</f>
-        <v>113.33333333333333</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -577,27 +579,27 @@
         <v>100</v>
       </c>
       <c r="B9" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2">
         <f>B9/$B$11</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2">
         <f>1-F9</f>
-        <v>0.25</v>
-      </c>
-      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="e">
         <f>G9/$G$11</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I9" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="3" t="e">
         <f>$B$3*H9</f>
-        <v>6.6666666666666661</v>
-      </c>
-      <c r="J9" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" s="3" t="e">
         <f>A9+I9</f>
-        <v>106.66666666666667</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -611,7 +613,7 @@
         <v>100</v>
       </c>
       <c r="B10" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2">
         <f>B10/$B$11</f>
@@ -621,17 +623,17 @@
         <f>1-F10</f>
         <v>0</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="2" t="e">
         <f>G10/$G$11</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="3" t="e">
         <f>$B$3*H10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" s="3" t="e">
         <f>A10+I10</f>
-        <v>100</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -643,11 +645,11 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <f>MAX(B7:B10)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" s="2">
         <f>SUM(G7:G10)</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -701,15 +703,15 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2">
         <f>B15/$B$19</f>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D15" s="2">
         <f>1-C15</f>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="E15" s="2">
         <f>D15/$D$19</f>
@@ -723,17 +725,17 @@
         <f>1-F15</f>
         <v>0</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="2" t="e">
         <f>G15/$G$19</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="3" t="e">
         <f>$B$3*H15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="3" t="e">
         <f>A15+I15</f>
-        <v>100</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M15" s="3"/>
       <c r="O15" s="3"/>
@@ -745,39 +747,39 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2">
         <f>B16/$B$19</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D16" s="2">
         <f>1-C16</f>
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="E16" s="2">
         <f>D16/$D$19</f>
-        <v>0.88888888888888895</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2">
         <f>D16/$D$19</f>
-        <v>0.88888888888888895</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2">
         <f>1-F16</f>
-        <v>0.11111111111111105</v>
-      </c>
-      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="e">
         <f>G16/$G$19</f>
-        <v>0.16666666666666655</v>
-      </c>
-      <c r="I16" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" s="3" t="e">
         <f>$B$3*H16</f>
-        <v>6.6666666666666616</v>
-      </c>
-      <c r="J16" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" s="3" t="e">
         <f>A16+I16</f>
-        <v>106.66666666666666</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M16" s="3"/>
       <c r="O16" s="3"/>
@@ -789,39 +791,39 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2">
         <f>B17/$B$19</f>
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D17" s="2">
         <f>1-C17</f>
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="E17" s="2">
         <f>D17/$D$19</f>
-        <v>0.77777777777777768</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2">
         <f>D17/$D$19</f>
-        <v>0.77777777777777768</v>
+        <v>1</v>
       </c>
       <c r="G17" s="2">
         <f>1-F17</f>
-        <v>0.22222222222222232</v>
-      </c>
-      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="e">
         <f>G17/$G$19</f>
-        <v>0.33333333333333343</v>
-      </c>
-      <c r="I17" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="3" t="e">
         <f>$B$3*H17</f>
-        <v>13.333333333333337</v>
-      </c>
-      <c r="J17" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" s="3" t="e">
         <f>A17+I17</f>
-        <v>113.33333333333334</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M17" s="3"/>
       <c r="O17" s="3"/>
@@ -833,39 +835,39 @@
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2">
         <f>B18/$B$19</f>
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="D18" s="2">
         <f>1-C18</f>
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="E18" s="2">
         <f>D18/$D$19</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="F18" s="2">
         <f>D18/$D$19</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2">
         <f>1-F18</f>
-        <v>0.33333333333333337</v>
-      </c>
-      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2" t="e">
         <f>G18/$G$19</f>
-        <v>0.5</v>
-      </c>
-      <c r="I18" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="3" t="e">
         <f>$B$3*H18</f>
-        <v>20</v>
-      </c>
-      <c r="J18" s="3">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" s="3" t="e">
         <f>A18+I18</f>
-        <v>120</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M18" s="3"/>
       <c r="O18" s="3"/>
@@ -873,15 +875,15 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <f>SUM(B15:B18)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2">
         <f>MAX(D15:D18)</f>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="G19" s="2">
         <f>SUM(G15:G18)</f>
-        <v>0.66666666666666674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -898,7 +900,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -971,27 +975,27 @@
         <v>100</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
         <f>B7/$B$11</f>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D7" s="2">
         <f>1-C7</f>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="E7" s="2">
         <f>D7/$D$11</f>
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="F7" s="3">
         <f>$B$3*E7</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G7" s="3">
         <f>A7+F7</f>
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1006,27 +1010,27 @@
         <v>100</v>
       </c>
       <c r="B8" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2">
         <f>B8/$B$11</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D8" s="2">
         <f>1-C8</f>
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="E8" s="2">
         <f>D8/$D$11</f>
-        <v>0.26666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="F8" s="3">
         <f>$B$3*E8</f>
-        <v>10.666666666666666</v>
+        <v>10</v>
       </c>
       <c r="G8" s="3">
         <f>A8+F8</f>
-        <v>110.66666666666667</v>
+        <v>110</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1041,27 +1045,27 @@
         <v>100</v>
       </c>
       <c r="B9" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2">
         <f>B9/$B$11</f>
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D9" s="2">
         <f>1-C9</f>
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="E9" s="2">
         <f>D9/$D$11</f>
-        <v>0.23333333333333328</v>
+        <v>0.25</v>
       </c>
       <c r="F9" s="3">
         <f>$B$3*E9</f>
-        <v>9.3333333333333321</v>
+        <v>10</v>
       </c>
       <c r="G9" s="3">
         <f>A9+F9</f>
-        <v>109.33333333333333</v>
+        <v>110</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1076,27 +1080,27 @@
         <v>100</v>
       </c>
       <c r="B10" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2">
         <f>B10/$B$11</f>
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="D10" s="2">
         <f>1-C10</f>
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="E10" s="2">
         <f>D10/$D$11</f>
-        <v>0.19999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="F10" s="3">
         <f>$B$3*E10</f>
-        <v>7.9999999999999982</v>
+        <v>10</v>
       </c>
       <c r="G10" s="3">
         <f>A10+F10</f>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1109,11 +1113,11 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <f>SUM(B7:B10)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
         <f>SUM(D7:D10)</f>
-        <v>3.0000000000000004</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1153,19 +1157,19 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15" s="2">
         <f>B15/$B$19</f>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="F15" s="3">
         <f>$B$3*E15</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G15" s="3">
         <f>A15+F15</f>
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1179,19 +1183,19 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E16" s="2">
         <f>B16/$B$19</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="F16" s="3">
         <f>$B$3*E16</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G16" s="3">
         <f>A16+F16</f>
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1205,19 +1209,19 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" s="2">
         <f>B17/$B$19</f>
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="F17" s="3">
         <f>$B$3*E17</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G17" s="3">
         <f>A17+F17</f>
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1231,19 +1235,19 @@
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" s="2">
         <f>B18/$B$19</f>
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="F18" s="3">
         <f>$B$3*E18</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G18" s="3">
         <f>A18+F18</f>
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1253,7 +1257,7 @@
     <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <f>SUM(B15:B18)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J19"/>
       <c r="K19"/>

--- a/SolutionItems/Documents/Index Income Calculation.xlsx
+++ b/SolutionItems/Documents/Index Income Calculation.xlsx
@@ -428,9 +428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -511,27 +509,27 @@
         <v>100</v>
       </c>
       <c r="B7" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2">
         <f>B7/$B$11</f>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G7" s="2">
         <f>1-F7</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="2" t="e">
+        <v>0.75</v>
+      </c>
+      <c r="H7" s="2">
         <f>G7/$G$11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="3" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="3">
         <f>$B$3*H7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="3" t="e">
+        <v>20</v>
+      </c>
+      <c r="J7" s="3">
         <f>A7+I7</f>
-        <v>#DIV/0!</v>
+        <v>120</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -545,27 +543,27 @@
         <v>100</v>
       </c>
       <c r="B8" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2">
         <f>B8/$B$11</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G8" s="2">
         <f>1-F8</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="2" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="2">
         <f>G8/$G$11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="3" t="e">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I8" s="3">
         <f>$B$3*H8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" s="3" t="e">
+        <v>13.333333333333332</v>
+      </c>
+      <c r="J8" s="3">
         <f>A8+I8</f>
-        <v>#DIV/0!</v>
+        <v>113.33333333333333</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -579,27 +577,27 @@
         <v>100</v>
       </c>
       <c r="B9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2">
         <f>B9/$B$11</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G9" s="2">
         <f>1-F9</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="e">
+        <v>0.25</v>
+      </c>
+      <c r="H9" s="2">
         <f>G9/$G$11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="3" t="e">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I9" s="3">
         <f>$B$3*H9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="3" t="e">
+        <v>6.6666666666666661</v>
+      </c>
+      <c r="J9" s="3">
         <f>A9+I9</f>
-        <v>#DIV/0!</v>
+        <v>106.66666666666667</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -613,7 +611,7 @@
         <v>100</v>
       </c>
       <c r="B10" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2">
         <f>B10/$B$11</f>
@@ -623,17 +621,17 @@
         <f>1-F10</f>
         <v>0</v>
       </c>
-      <c r="H10" s="2" t="e">
+      <c r="H10" s="2">
         <f>G10/$G$11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <f>$B$3*H10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <f>A10+I10</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -645,11 +643,11 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <f>MAX(B7:B10)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11" s="2">
         <f>SUM(G7:G10)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -703,15 +701,15 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2">
         <f>B15/$B$19</f>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D15" s="2">
         <f>1-C15</f>
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="E15" s="2">
         <f>D15/$D$19</f>
@@ -725,17 +723,17 @@
         <f>1-F15</f>
         <v>0</v>
       </c>
-      <c r="H15" s="2" t="e">
+      <c r="H15" s="2">
         <f>G15/$G$19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
         <f>$B$3*H15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
         <f>A15+I15</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="M15" s="3"/>
       <c r="O15" s="3"/>
@@ -747,39 +745,39 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2">
         <f>B16/$B$19</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D16" s="2">
         <f>1-C16</f>
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="E16" s="2">
         <f>D16/$D$19</f>
-        <v>1</v>
+        <v>0.88888888888888895</v>
       </c>
       <c r="F16" s="2">
         <f>D16/$D$19</f>
-        <v>1</v>
+        <v>0.88888888888888895</v>
       </c>
       <c r="G16" s="2">
         <f>1-F16</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="2" t="e">
+        <v>0.11111111111111105</v>
+      </c>
+      <c r="H16" s="2">
         <f>G16/$G$19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="3" t="e">
+        <v>0.16666666666666655</v>
+      </c>
+      <c r="I16" s="3">
         <f>$B$3*H16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="3" t="e">
+        <v>6.6666666666666616</v>
+      </c>
+      <c r="J16" s="3">
         <f>A16+I16</f>
-        <v>#DIV/0!</v>
+        <v>106.66666666666666</v>
       </c>
       <c r="M16" s="3"/>
       <c r="O16" s="3"/>
@@ -791,39 +789,39 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2">
         <f>B17/$B$19</f>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="D17" s="2">
         <f>1-C17</f>
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E17" s="2">
         <f>D17/$D$19</f>
-        <v>1</v>
+        <v>0.77777777777777768</v>
       </c>
       <c r="F17" s="2">
         <f>D17/$D$19</f>
-        <v>1</v>
+        <v>0.77777777777777768</v>
       </c>
       <c r="G17" s="2">
         <f>1-F17</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="2" t="e">
+        <v>0.22222222222222232</v>
+      </c>
+      <c r="H17" s="2">
         <f>G17/$G$19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="3" t="e">
+        <v>0.33333333333333343</v>
+      </c>
+      <c r="I17" s="3">
         <f>$B$3*H17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J17" s="3" t="e">
+        <v>13.333333333333337</v>
+      </c>
+      <c r="J17" s="3">
         <f>A17+I17</f>
-        <v>#DIV/0!</v>
+        <v>113.33333333333334</v>
       </c>
       <c r="M17" s="3"/>
       <c r="O17" s="3"/>
@@ -835,39 +833,39 @@
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
         <f>B18/$B$19</f>
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D18" s="2">
         <f>1-C18</f>
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="E18" s="2">
         <f>D18/$D$19</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F18" s="2">
         <f>D18/$D$19</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G18" s="2">
         <f>1-F18</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="2" t="e">
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="H18" s="2">
         <f>G18/$G$19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="3" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="3">
         <f>$B$3*H18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J18" s="3" t="e">
+        <v>20</v>
+      </c>
+      <c r="J18" s="3">
         <f>A18+I18</f>
-        <v>#DIV/0!</v>
+        <v>120</v>
       </c>
       <c r="M18" s="3"/>
       <c r="O18" s="3"/>
@@ -875,15 +873,15 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <f>SUM(B15:B18)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D19" s="2">
         <f>MAX(D15:D18)</f>
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="G19" s="2">
         <f>SUM(G15:G18)</f>
-        <v>0</v>
+        <v>0.66666666666666674</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -900,9 +898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -975,27 +971,27 @@
         <v>100</v>
       </c>
       <c r="B7" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2">
         <f>B7/$B$11</f>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D7" s="2">
         <f>1-C7</f>
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="E7" s="2">
         <f>D7/$D$11</f>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="F7" s="3">
         <f>$B$3*E7</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G7" s="3">
         <f>A7+F7</f>
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1010,27 +1006,27 @@
         <v>100</v>
       </c>
       <c r="B8" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2">
         <f>B8/$B$11</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D8" s="2">
         <f>1-C8</f>
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="E8" s="2">
         <f>D8/$D$11</f>
-        <v>0.25</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="F8" s="3">
         <f>$B$3*E8</f>
-        <v>10</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="G8" s="3">
         <f>A8+F8</f>
-        <v>110</v>
+        <v>110.66666666666667</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1045,27 +1041,27 @@
         <v>100</v>
       </c>
       <c r="B9" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2">
         <f>B9/$B$11</f>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="D9" s="2">
         <f>1-C9</f>
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E9" s="2">
         <f>D9/$D$11</f>
-        <v>0.25</v>
+        <v>0.23333333333333328</v>
       </c>
       <c r="F9" s="3">
         <f>$B$3*E9</f>
-        <v>10</v>
+        <v>9.3333333333333321</v>
       </c>
       <c r="G9" s="3">
         <f>A9+F9</f>
-        <v>110</v>
+        <v>109.33333333333333</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1080,27 +1076,27 @@
         <v>100</v>
       </c>
       <c r="B10" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2">
         <f>B10/$B$11</f>
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D10" s="2">
         <f>1-C10</f>
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="E10" s="2">
         <f>D10/$D$11</f>
-        <v>0.25</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="F10" s="3">
         <f>$B$3*E10</f>
-        <v>10</v>
+        <v>7.9999999999999982</v>
       </c>
       <c r="G10" s="3">
         <f>A10+F10</f>
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1113,11 +1109,11 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <f>SUM(B7:B10)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2">
         <f>SUM(D7:D10)</f>
-        <v>3</v>
+        <v>3.0000000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1157,19 +1153,19 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2">
         <f>B15/$B$19</f>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="F15" s="3">
         <f>$B$3*E15</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G15" s="3">
         <f>A15+F15</f>
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1183,19 +1179,19 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E16" s="2">
         <f>B16/$B$19</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F16" s="3">
         <f>$B$3*E16</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G16" s="3">
         <f>A16+F16</f>
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1209,19 +1205,19 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E17" s="2">
         <f>B17/$B$19</f>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="F17" s="3">
         <f>$B$3*E17</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G17" s="3">
         <f>A17+F17</f>
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1235,19 +1231,19 @@
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18" s="2">
         <f>B18/$B$19</f>
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="F18" s="3">
         <f>$B$3*E18</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G18" s="3">
         <f>A18+F18</f>
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1257,7 +1253,7 @@
     <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <f>SUM(B15:B18)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J19"/>
       <c r="K19"/>
